--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>[]</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>Folder 1</t>
+  </si>
+  <si>
+    <t>Folder 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Folder 3</t>
+  </si>
+  <si>
+    <t>Folder 4</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -234,11 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -544,14 +563,36 @@
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -561,8 +602,38 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -572,8 +643,42 @@
       <c r="C3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="I3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="K3">
+        <v>0.6</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="N3">
+        <f>(B3+E3+H3+K3)/4</f>
+        <v>0.54444444444444451</v>
+      </c>
+      <c r="O3">
+        <f>(C3+F3+I3+L3)/4</f>
+        <v>0.36388888888888904</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(N3:N59)</f>
+        <v>0.45433689343568612</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(O3:O59)</f>
+        <v>0.3849848025549929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -583,8 +688,34 @@
       <c r="C4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="F4">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="H4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I4">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="K4">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="L4">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N59" si="0">(B4+E4+H4+K4)/4</f>
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O59" si="1">(C4+F4+I4+L4)/4</f>
+        <v>0.34027777777777746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -594,8 +725,34 @@
       <c r="C5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.18333333333333324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -605,8 +762,34 @@
       <c r="C6">
         <v>0.11111111111111099</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="F6">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="H6">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="I6">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="K6">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="L6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.36111111111111099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -616,8 +799,34 @@
       <c r="C7">
         <v>0.78947368421052599</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7">
+        <v>0.95</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="H7">
+        <v>0.84210526315789502</v>
+      </c>
+      <c r="I7">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="K7">
+        <v>0.7</v>
+      </c>
+      <c r="L7">
+        <v>0.6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.84671052631578947</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.66776315789473684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -627,8 +836,34 @@
       <c r="C8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.1704545454545455</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.11818181818181825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -638,8 +873,34 @@
       <c r="C9">
         <v>0.16666666666666699</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="L9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -649,8 +910,34 @@
       <c r="C10">
         <v>0.42857142857142899</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="F10">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285747E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -660,8 +947,34 @@
       <c r="C11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.39166666666666672</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -671,8 +984,34 @@
       <c r="C12">
         <v>0.81355932203389802</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12">
+        <v>0.98305084745762705</v>
+      </c>
+      <c r="F12">
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="H12">
+        <v>0.83050847457627097</v>
+      </c>
+      <c r="I12">
+        <v>0.88135593220339004</v>
+      </c>
+      <c r="K12">
+        <v>0.9</v>
+      </c>
+      <c r="L12">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.9029661016949152</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.85642655367231624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -682,8 +1021,34 @@
       <c r="C13">
         <v>0.14285714285714299</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.125</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.16517857142857151</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285747E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -693,8 +1058,34 @@
       <c r="C14">
         <v>0.63333333333333297</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I14">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="K14">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="L14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.77661290322580645</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.76774193548387071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -704,8 +1095,34 @@
       <c r="C15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.35833333333333328</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -715,8 +1132,34 @@
       <c r="C16">
         <v>0.92424242424242398</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16">
+        <v>0.87969924812030098</v>
+      </c>
+      <c r="F16">
+        <v>0.96992481203007497</v>
+      </c>
+      <c r="H16">
+        <v>0.90225563909774398</v>
+      </c>
+      <c r="I16">
+        <v>0.92481203007518797</v>
+      </c>
+      <c r="K16">
+        <v>0.86466165413533802</v>
+      </c>
+      <c r="L16">
+        <v>0.95488721804511301</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.88703292321713367</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0.9434666210981999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -726,8 +1169,34 @@
       <c r="C17">
         <v>0.62962962962962998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="F17">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H17">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="I17">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="K17">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.54596560846560849</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.45568783068783075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -737,8 +1206,34 @@
       <c r="C18">
         <v>0.54545454545454497</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="F18">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="H18">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="I18">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="K18">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="L18">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0.34090909090909094</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.56818181818181801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -748,8 +1243,34 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="F19">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="H19">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="I19">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571494E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571494E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -759,8 +1280,34 @@
       <c r="C20">
         <v>0.14285714285714299</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20">
+        <v>0.875</v>
+      </c>
+      <c r="F20">
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="I20">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="K20">
+        <v>0.625</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0.69642857142857117</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.52678571428571419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -770,8 +1317,34 @@
       <c r="C21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.14166666666666675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -781,8 +1354,34 @@
       <c r="C22">
         <v>0.33333333333333298</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <v>0.6</v>
+      </c>
+      <c r="H22">
+        <v>0.7</v>
+      </c>
+      <c r="I22">
+        <v>0.4</v>
+      </c>
+      <c r="K22">
+        <v>0.3</v>
+      </c>
+      <c r="L22">
+        <v>0.1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0.45555555555555549</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.35833333333333328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -792,8 +1391,34 @@
       <c r="C23">
         <v>0.38888888888888901</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="F23">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="H23">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="I23">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="K23">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="L23">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.62500000000000033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -803,8 +1428,34 @@
       <c r="C24">
         <v>0.28571428571428598</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F24">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H24">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="I24">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="K24">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="L24">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857117</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.57142857142857117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -814,8 +1465,34 @@
       <c r="C25">
         <v>0.41666666666666702</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="F25">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="H25">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="I25">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="K25">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="L25">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0.42948717948717952</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.5657051282051283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -825,8 +1502,34 @@
       <c r="C26">
         <v>0.53846153846153799</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="L26">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0.52335164835164849</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.54532967032967017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -836,8 +1539,34 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>0.8</v>
+      </c>
+      <c r="I27">
+        <v>0.2</v>
+      </c>
+      <c r="K27">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.18333333333333324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -847,8 +1576,34 @@
       <c r="C28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="F28">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="H28">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="I28">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="K28">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="L28">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.22954545454545475</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -858,8 +1613,34 @@
       <c r="C29">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <v>0.8</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
+        <v>0.2</v>
+      </c>
+      <c r="K29">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.49166666666666675</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -869,8 +1650,34 @@
       <c r="C30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F30">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H30">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I30">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="K30">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0.58928571428571397</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -880,8 +1687,34 @@
       <c r="C31">
         <v>0.30769230769230799</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="F31">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="H31">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="I31">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="K31">
+        <v>0.64285714285714302</v>
+      </c>
+      <c r="L31">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0.41620879120879123</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.34478021978021972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -891,8 +1724,34 @@
       <c r="C32">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
+        <v>0.25</v>
+      </c>
+      <c r="I32">
+        <v>0.375</v>
+      </c>
+      <c r="K32">
+        <v>0.375</v>
+      </c>
+      <c r="L32">
+        <v>0.375</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -902,8 +1761,34 @@
       <c r="C33">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="H33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I33">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="L33">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="O33">
+        <f>(C33+F33+I33+L33)/4</f>
+        <v>0.34166666666666651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -913,8 +1798,34 @@
       <c r="C34">
         <v>0.14285714285714299</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="F34">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H34">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I34">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="K34">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="L34">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714302</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.17857142857142874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -924,8 +1835,34 @@
       <c r="C35">
         <v>0.64285714285714302</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="F35">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H35">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="I35">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K35">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="L35">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0.8107142857142855</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.67738095238095242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -935,8 +1872,34 @@
       <c r="C36">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36">
+        <v>0.625</v>
+      </c>
+      <c r="F36">
+        <v>0.375</v>
+      </c>
+      <c r="H36">
+        <v>0.625</v>
+      </c>
+      <c r="I36">
+        <v>0.375</v>
+      </c>
+      <c r="K36">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="L36">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>0.60763888888888906</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -946,8 +1909,34 @@
       <c r="C37">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0.7</v>
+      </c>
+      <c r="H37">
+        <v>0.7</v>
+      </c>
+      <c r="I37">
+        <v>0.7</v>
+      </c>
+      <c r="K37">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="L37">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>0.6068181818181817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -957,8 +1946,34 @@
       <c r="C38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <v>0.4</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0.31666666666666676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -968,8 +1983,34 @@
       <c r="C39">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+      <c r="H39">
+        <v>0.6</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="L39">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>0.51136363636363624</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>0.43636363636363623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -979,8 +2020,34 @@
       <c r="C40">
         <v>0.41666666666666702</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>0.75</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="H40">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="I40">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>0.5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333326</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -990,8 +2057,34 @@
       <c r="C41">
         <v>0.14285714285714299</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F41">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="H41">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.75</v>
+      </c>
+      <c r="L41">
+        <v>0.125</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0.50892857142857151</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>0.20982142857142849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1001,8 +2094,34 @@
       <c r="C42">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="H42">
+        <v>0.875</v>
+      </c>
+      <c r="I42">
+        <v>0.625</v>
+      </c>
+      <c r="K42">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="L42">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>0.63541666666666674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1012,8 +2131,34 @@
       <c r="C43">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>0.4</v>
+      </c>
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+      <c r="H43">
+        <v>0.4</v>
+      </c>
+      <c r="I43">
+        <v>0.4</v>
+      </c>
+      <c r="K43">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>0.34166666666666679</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1023,8 +2168,34 @@
       <c r="C44">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>0.4</v>
+      </c>
+      <c r="H44">
+        <v>0.4</v>
+      </c>
+      <c r="I44">
+        <v>0.1</v>
+      </c>
+      <c r="K44">
+        <v>0.4</v>
+      </c>
+      <c r="L44">
+        <v>0.2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1034,8 +2205,34 @@
       <c r="C45">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F45">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>0.4</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>9.1666666666666757E-2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>0.23333333333333325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1045,8 +2242,34 @@
       <c r="C46">
         <v>0.28571428571428598</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <v>0.25</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>0.125</v>
+      </c>
+      <c r="K46">
+        <v>0.625</v>
+      </c>
+      <c r="L46">
+        <v>0.5</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0.41517857142857151</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>0.35267857142857151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1056,8 +2279,34 @@
       <c r="C47">
         <v>0.16666666666666699</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="I47">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="K47">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="L47">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>0.51190476190476175</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>0.25595238095238126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1067,8 +2316,34 @@
       <c r="C48">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="E48">
+        <v>0.75</v>
+      </c>
+      <c r="F48">
+        <v>0.25</v>
+      </c>
+      <c r="H48">
+        <v>0.75</v>
+      </c>
+      <c r="I48">
+        <v>0.75</v>
+      </c>
+      <c r="K48">
+        <v>0.875</v>
+      </c>
+      <c r="L48">
+        <v>0.75</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1078,8 +2353,34 @@
       <c r="C49">
         <v>0.16666666666666699</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I49">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K49">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="L49">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0.148809523809524</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>0.16071428571428575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1089,8 +2390,34 @@
       <c r="C50">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="E50">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="H50">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I50">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K50">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L50">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>0.61666666666666647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1100,8 +2427,34 @@
       <c r="C51">
         <v>0.53846153846153799</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="F51">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="H51">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="I51">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="K51">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="L51">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>0.63461538461538425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1111,8 +2464,34 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="E52">
+        <v>0.375</v>
+      </c>
+      <c r="F52">
+        <v>0.25</v>
+      </c>
+      <c r="H52">
+        <v>0.375</v>
+      </c>
+      <c r="I52">
+        <v>0.5</v>
+      </c>
+      <c r="K52">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="L52">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0.30555555555555547</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>0.2430555555555555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1122,8 +2501,34 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="E53">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I53">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="K53">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L53">
+        <v>0.5</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999972</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1133,8 +2538,34 @@
       <c r="C54">
         <v>0.16666666666666699</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="E54">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F54">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H54">
+        <v>0.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333348</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333495E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1144,8 +2575,34 @@
       <c r="C55">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="E55">
+        <v>0.375</v>
+      </c>
+      <c r="F55">
+        <v>0.125</v>
+      </c>
+      <c r="H55">
+        <v>0.375</v>
+      </c>
+      <c r="I55">
+        <v>0.125</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>0.23958333333333326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1155,8 +2612,34 @@
       <c r="C56">
         <v>0.77777777777777801</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="F56">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H56">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="I56">
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="K56">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="L56">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333348</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>0.72222222222222232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1166,8 +2649,34 @@
       <c r="C57">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57">
+        <v>0.625</v>
+      </c>
+      <c r="F57">
+        <v>0.375</v>
+      </c>
+      <c r="H57">
+        <v>0.25</v>
+      </c>
+      <c r="I57">
+        <v>0.125</v>
+      </c>
+      <c r="K57">
+        <v>0.125</v>
+      </c>
+      <c r="L57">
+        <v>0.25</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1177,8 +2686,34 @@
       <c r="C58">
         <v>0.36363636363636398</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H58">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I58">
+        <v>0.25</v>
+      </c>
+      <c r="K58">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L58">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0.34090909090909099</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>0.34090909090909099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1188,10 +2723,41 @@
       <c r="C59">
         <v>0.5</v>
       </c>
+      <c r="E59">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+      <c r="H59">
+        <v>0.5</v>
+      </c>
+      <c r="I59">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>0.5</v>
+      </c>
+      <c r="L59">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333326</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9504"/>
+    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9504" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="lfw" sheetId="1" r:id="rId1"/>
+    <sheet name="att_faces" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
   <si>
     <t>[]</t>
   </si>
@@ -217,6 +217,129 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>'s1'</t>
+  </si>
+  <si>
+    <t>'s10'</t>
+  </si>
+  <si>
+    <t>'s11'</t>
+  </si>
+  <si>
+    <t>'s12'</t>
+  </si>
+  <si>
+    <t>'s13'</t>
+  </si>
+  <si>
+    <t>'s14'</t>
+  </si>
+  <si>
+    <t>'s15'</t>
+  </si>
+  <si>
+    <t>'s16'</t>
+  </si>
+  <si>
+    <t>'s17'</t>
+  </si>
+  <si>
+    <t>'s18'</t>
+  </si>
+  <si>
+    <t>'s19'</t>
+  </si>
+  <si>
+    <t>'s2'</t>
+  </si>
+  <si>
+    <t>'s20'</t>
+  </si>
+  <si>
+    <t>'s21'</t>
+  </si>
+  <si>
+    <t>'s22'</t>
+  </si>
+  <si>
+    <t>'s23'</t>
+  </si>
+  <si>
+    <t>'s24'</t>
+  </si>
+  <si>
+    <t>'s25'</t>
+  </si>
+  <si>
+    <t>'s26'</t>
+  </si>
+  <si>
+    <t>'s27'</t>
+  </si>
+  <si>
+    <t>'s28'</t>
+  </si>
+  <si>
+    <t>'s29'</t>
+  </si>
+  <si>
+    <t>'s3'</t>
+  </si>
+  <si>
+    <t>'s30'</t>
+  </si>
+  <si>
+    <t>'s31'</t>
+  </si>
+  <si>
+    <t>'s32'</t>
+  </si>
+  <si>
+    <t>'s33'</t>
+  </si>
+  <si>
+    <t>'s34'</t>
+  </si>
+  <si>
+    <t>'s35'</t>
+  </si>
+  <si>
+    <t>'s36'</t>
+  </si>
+  <si>
+    <t>'s37'</t>
+  </si>
+  <si>
+    <t>'s38'</t>
+  </si>
+  <si>
+    <t>'s39'</t>
+  </si>
+  <si>
+    <t>'s4'</t>
+  </si>
+  <si>
+    <t>'s40'</t>
+  </si>
+  <si>
+    <t>'s5'</t>
+  </si>
+  <si>
+    <t>'s6'</t>
+  </si>
+  <si>
+    <t>'s7'</t>
+  </si>
+  <si>
+    <t>'s8'</t>
+  </si>
+  <si>
+    <t>'s9'</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
@@ -254,10 +377,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -564,33 +687,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -662,7 +785,7 @@
         <v>0.4</v>
       </c>
       <c r="N3">
-        <f>(B3+E3+H3+K3)/4</f>
+        <f t="shared" ref="N3:N59" si="0">(B3+E3+H3+K3)/4</f>
         <v>0.54444444444444451</v>
       </c>
       <c r="O3">
@@ -707,7 +830,7 @@
         <v>0.44444444444444398</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N59" si="0">(B4+E4+H4+K4)/4</f>
+        <f t="shared" si="0"/>
         <v>0.37152777777777779</v>
       </c>
       <c r="O4">
@@ -2765,12 +2888,1578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N3">
+        <f>(B3+E3+H3+K3)/4</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="O3">
+        <f>(C3+F3+I3+L3)/4</f>
+        <v>0.70833333333333348</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(N3:N42)</f>
+        <v>0.97604166666666659</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(O3:O42)</f>
+        <v>0.83541666666666681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N42" si="0">(B4+E4+H4+K4)/4</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O42" si="1">(C4+F4+I4+L4)/4</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L23">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="L37">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F38">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -2891,7 +2891,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9504" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lfw" sheetId="1" r:id="rId1"/>
     <sheet name="att_faces" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="uag_faces" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>[]</t>
   </si>
@@ -340,6 +340,39 @@
   </si>
   <si>
     <t>Média</t>
+  </si>
+  <si>
+    <t>'aline'</t>
+  </si>
+  <si>
+    <t>'arthur'</t>
+  </si>
+  <si>
+    <t>'isa'</t>
+  </si>
+  <si>
+    <t>'israel'</t>
+  </si>
+  <si>
+    <t>'jefferson'</t>
+  </si>
+  <si>
+    <t>'joao'</t>
+  </si>
+  <si>
+    <t>'marrone'</t>
+  </si>
+  <si>
+    <t>'professor'</t>
+  </si>
+  <si>
+    <t>'raquel'</t>
+  </si>
+  <si>
+    <t>'vinicius'</t>
+  </si>
+  <si>
+    <t>'wagner'</t>
   </si>
 </sst>
 </file>
@@ -2890,7 +2923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -4466,12 +4499,505 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <v>0.875</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <v>0.75</v>
+      </c>
+      <c r="N3">
+        <f>(B3+E3+H3+K3)/4</f>
+        <v>0.77678571428571419</v>
+      </c>
+      <c r="O3">
+        <f>(C3+F3+I3+L3)/4</f>
+        <v>0.84375</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(N3:N13)</f>
+        <v>0.7976973783791963</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(O3:O13)</f>
+        <v>0.83265238549329468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="L4">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N13" si="0">(B4+E4+H4+K4)/4</f>
+        <v>0.86363636363636342</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O13" si="1">(C4+F4+I4+L4)/4</f>
+        <v>0.93181818181818177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C5">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="H5">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I5">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="K5">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="L5">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.85576923076923073</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.83653846153846145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="C6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="E6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="H6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="I6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="K6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="L6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.71153846153846134</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.80769230769230749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="C8">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="E8">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="F8">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="L8">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.82692307692307698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F9">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="H9">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="I9">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.90384615384615374</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.80769230769230749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="L11">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.92857142857142849</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.92857142857142849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="K12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="L12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.87500000000000022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C13">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H13">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="L13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.68452380952380931</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.55952380952380931</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belleaf\Documents\MATLAB\pooling-raw-faces\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9504" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="60" windowWidth="19095" windowHeight="9510" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lfw" sheetId="1" r:id="rId1"/>
     <sheet name="att_faces" sheetId="2" r:id="rId2"/>
     <sheet name="uag_faces" sheetId="3" r:id="rId3"/>
+    <sheet name="MIT" sheetId="4" r:id="rId4"/>
+    <sheet name="Resultados" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
   <si>
     <t>[]</t>
   </si>
@@ -373,15 +380,80 @@
   </si>
   <si>
     <t>'wagner'</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Neural</t>
+  </si>
+  <si>
+    <t>"0000"</t>
+  </si>
+  <si>
+    <t>"0001"</t>
+  </si>
+  <si>
+    <t>"0002"</t>
+  </si>
+  <si>
+    <t>"0003"</t>
+  </si>
+  <si>
+    <t>"0004"</t>
+  </si>
+  <si>
+    <t>"0005"</t>
+  </si>
+  <si>
+    <t>"0006"</t>
+  </si>
+  <si>
+    <t>"0007"</t>
+  </si>
+  <si>
+    <t>"0008"</t>
+  </si>
+  <si>
+    <t>"0009"</t>
+  </si>
+  <si>
+    <t>Rede Neural</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>MIT-CBCL</t>
+  </si>
+  <si>
+    <t>UAG_FACES</t>
+  </si>
+  <si>
+    <t>LFW deep funneled pré processada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -396,7 +468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -404,29 +476,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -464,9 +611,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +645,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,9 +680,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -707,19 +856,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -748,7 +897,7 @@
       </c>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -834,7 +983,7 @@
         <v>0.3849848025549929</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -871,7 +1020,7 @@
         <v>0.34027777777777746</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -908,7 +1057,7 @@
         <v>0.18333333333333324</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -945,7 +1094,7 @@
         <v>0.36111111111111099</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -982,7 +1131,7 @@
         <v>0.66776315789473684</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1168,7 @@
         <v>0.11818181818181825</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1205,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1242,7 @@
         <v>0.28571428571428598</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1279,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1316,7 @@
         <v>0.85642655367231624</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1353,7 @@
         <v>3.5714285714285747E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1390,7 @@
         <v>0.76774193548387071</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1427,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1464,7 @@
         <v>0.9434666210981999</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1501,7 @@
         <v>0.45568783068783075</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1389,7 +1538,7 @@
         <v>0.56818181818181801</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1426,7 +1575,7 @@
         <v>7.1428571428571494E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1612,7 @@
         <v>0.52678571428571419</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1649,7 @@
         <v>0.14166666666666675</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +1686,7 @@
         <v>0.35833333333333328</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1574,7 +1723,7 @@
         <v>0.62500000000000033</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1611,7 +1760,7 @@
         <v>0.57142857142857117</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1648,7 +1797,7 @@
         <v>0.5657051282051283</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1685,7 +1834,7 @@
         <v>0.54532967032967017</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1871,7 @@
         <v>0.18333333333333324</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1759,7 +1908,7 @@
         <v>0.59999999999999976</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1796,7 +1945,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1833,7 +1982,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1870,7 +2019,7 @@
         <v>0.34478021978021972</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1907,7 +2056,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +2093,7 @@
         <v>0.34166666666666651</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1981,7 +2130,7 @@
         <v>0.17857142857142874</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2018,7 +2167,7 @@
         <v>0.67738095238095242</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2055,7 +2204,7 @@
         <v>0.45833333333333326</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2092,7 +2241,7 @@
         <v>0.6068181818181817</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +2278,7 @@
         <v>0.31666666666666676</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2166,7 +2315,7 @@
         <v>0.43636363636363623</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2240,7 +2389,7 @@
         <v>0.20982142857142849</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2277,7 +2426,7 @@
         <v>0.63541666666666674</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2314,7 +2463,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2351,7 +2500,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2388,7 +2537,7 @@
         <v>0.23333333333333325</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2425,7 +2574,7 @@
         <v>0.35267857142857151</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2462,7 +2611,7 @@
         <v>0.25595238095238126</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2499,7 +2648,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2536,7 +2685,7 @@
         <v>0.16071428571428575</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2573,7 +2722,7 @@
         <v>0.61666666666666647</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2610,7 +2759,7 @@
         <v>0.63461538461538425</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2647,7 +2796,7 @@
         <v>0.2430555555555555</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2684,7 +2833,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2721,7 +2870,7 @@
         <v>8.3333333333333495E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2758,7 +2907,7 @@
         <v>0.23958333333333326</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2795,7 +2944,7 @@
         <v>0.72222222222222232</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2832,7 +2981,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2869,7 +3018,7 @@
         <v>0.34090909090909099</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2920,16 +3069,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>60</v>
       </c>
@@ -2955,7 +3104,7 @@
       </c>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -3041,7 +3190,7 @@
         <v>0.83541666666666681</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3078,7 +3227,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -3115,7 +3264,7 @@
         <v>0.70833333333333326</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3152,7 +3301,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -3189,7 +3338,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -3226,7 +3375,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -3263,7 +3412,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -3300,7 +3449,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -3337,7 +3486,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3374,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -3411,7 +3560,7 @@
         <v>0.83333333333333348</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -3448,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -3485,7 +3634,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3522,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3559,7 +3708,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -3596,7 +3745,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3633,7 +3782,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -3670,7 +3819,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -3707,7 +3856,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -3744,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -3781,7 +3930,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -3818,7 +3967,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -3855,7 +4004,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -3892,7 +4041,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3929,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -3966,7 +4115,7 @@
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -4003,7 +4152,7 @@
         <v>0.54166666666666674</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -4040,7 +4189,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -4077,7 +4226,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -4114,7 +4263,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4151,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -4188,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -4225,7 +4374,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -4262,7 +4411,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -4299,7 +4448,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -4336,7 +4485,7 @@
         <v>0.54166666666666652</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -4373,7 +4522,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -4410,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -4447,7 +4596,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -4484,6 +4633,1193 @@
         <v>1</v>
       </c>
     </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3">
+        <v>0.875</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <v>0.75</v>
+      </c>
+      <c r="N3">
+        <f>(B3+E3+H3+K3)/4</f>
+        <v>0.77678571428571419</v>
+      </c>
+      <c r="O3">
+        <f>(C3+F3+I3+L3)/4</f>
+        <v>0.84375</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(N3:N13)</f>
+        <v>0.7976973783791963</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(O3:O13)</f>
+        <v>0.83265238549329468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="L4">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N13" si="0">(B4+E4+H4+K4)/4</f>
+        <v>0.86363636363636342</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O13" si="1">(C4+F4+I4+L4)/4</f>
+        <v>0.93181818181818177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C5">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="H5">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I5">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="K5">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="L5">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.85576923076923073</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.83653846153846145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="C6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="E6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="H6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="I6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="K6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="L6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.71153846153846134</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.80769230769230749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="C8">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="E8">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="F8">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="L8">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.82692307692307698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F9">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="H9">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="I9">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.90384615384615374</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.80769230769230749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="L11">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.92857142857142849</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.92857142857142849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="K12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="L12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.87500000000000022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C13">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H13">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="L13">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.68452380952380931</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.55952380952380931</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <f>(B3+E3+H3+K3)/4</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <f>(C3+F3+I3+L3)/4</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <f>(N3+N4+N5+N6+N7+N8+N9+N10+N11+N12)/10</f>
+        <v>0.98958333333333326</v>
+      </c>
+      <c r="R3" s="4">
+        <f>(O3+O4+O5+O6+O7+O8+O9+O10+O11+O12)/10</f>
+        <v>0.99166666666666681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N12" si="0">(B4+E4+H4+K4)/4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O12" si="1">(C4+F4+I4+L4)/4</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>0.93518518518518501</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98379629629629628</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>0.64814814814814803</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91203703703703698</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="5">
+        <f>N3</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <f>O3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" ref="B16:B24" si="2">N4</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:C24" si="3">O4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.98379629629629628</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="2"/>
+        <v>0.91203703703703698</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
@@ -4493,511 +5829,79 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.75</v>
-      </c>
-      <c r="F3">
-        <v>0.875</v>
-      </c>
-      <c r="H3">
-        <v>0.75</v>
-      </c>
-      <c r="I3">
-        <v>0.75</v>
-      </c>
-      <c r="K3">
-        <v>0.75</v>
-      </c>
-      <c r="L3">
-        <v>0.75</v>
-      </c>
-      <c r="N3">
-        <f>(B3+E3+H3+K3)/4</f>
-        <v>0.77678571428571419</v>
-      </c>
-      <c r="O3">
-        <f>(C3+F3+I3+L3)/4</f>
-        <v>0.84375</v>
-      </c>
-      <c r="Q3">
-        <f>AVERAGE(N3:N13)</f>
-        <v>0.7976973783791963</v>
-      </c>
-      <c r="R3">
-        <f>AVERAGE(O3:O13)</f>
-        <v>0.83265238549329468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="F4">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="H4">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="L4">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N13" si="0">(B4+E4+H4+K4)/4</f>
-        <v>0.86363636363636342</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O13" si="1">(C4+F4+I4+L4)/4</f>
-        <v>0.93181818181818177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C5">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="E5">
-        <v>0.75</v>
-      </c>
-      <c r="F5">
-        <v>0.75</v>
-      </c>
-      <c r="H5">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="I5">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="K5">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="L5">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0.85576923076923073</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0.83653846153846145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6">
-        <v>0.61538461538461497</v>
-      </c>
-      <c r="C6">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="E6">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="F6">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="H6">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="I6">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="K6">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="L6">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.71153846153846134</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0.80769230769230749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="F7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0.79166666666666674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8">
-        <v>0.46153846153846201</v>
-      </c>
-      <c r="C8">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="E8">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="F8">
-        <v>0.46153846153846201</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="L8">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0.82692307692307698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="F9">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="H9">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="I9">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0.90384615384615374</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0.80769230769230749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10">
-        <v>0.4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="D2" s="9">
         <v>0.8</v>
       </c>
-      <c r="I10">
-        <v>0.8</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="L11">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0.92857142857142849</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0.92857142857142849</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C12">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E12">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="I12">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="K12">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="L12">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333348</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0.87500000000000022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C13">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="H13">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="L13">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0.68452380952380931</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0.55952380952380931</v>
+      <c r="E2" s="9">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="60" windowWidth="19095" windowHeight="9510" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="195" yWindow="60" windowWidth="19095" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lfw" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,6 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -552,6 +549,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,6 +568,1127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Resultado Geral</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LFW deep funneled pré processada</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AT&amp;T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UAG_FACES</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MIT-CBCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rede Neural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resultados!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LFW deep funneled pré processada</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AT&amp;T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UAG_FACES</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MIT-CBCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-838831728"/>
+        <c:axId val="-838830640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-838831728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-838830640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-838830640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-838831728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,7 +1981,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,30 +1993,30 @@
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -942,43 +2063,47 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.4</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>0.4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.1</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>0.77777777777777801</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>0.6</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.4</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <f t="shared" ref="N3:N59" si="0">(B3+E3+H3+K3)/4</f>
         <v>0.54444444444444451</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <f>(C3+F3+I3+L3)/4</f>
         <v>0.36388888888888904</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <f>AVERAGE(N3:N59)</f>
         <v>0.45433689343568612</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <f>AVERAGE(O3:O59)</f>
         <v>0.3849848025549929</v>
       </c>
@@ -987,35 +2112,39 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0.375</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.25</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.22222222222222199</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.44444444444444398</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>0.22222222222222199</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.44444444444444398</v>
       </c>
-      <c r="N4">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <f t="shared" si="0"/>
         <v>0.37152777777777779</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <f t="shared" ref="O4:O59" si="1">(C4+F4+I4+L4)/4</f>
         <v>0.34027777777777746</v>
       </c>
@@ -1024,35 +2153,39 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>0.2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.2</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>0.6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>0.2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.2</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>0.5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N5">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <f t="shared" si="1"/>
         <v>0.18333333333333324</v>
       </c>
@@ -1061,35 +2194,39 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.11111111111111099</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.44444444444444398</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>0.22222222222222199</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>0.11111111111111099</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N6">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <f t="shared" si="0"/>
         <v>0.22222222222222227</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <f t="shared" si="1"/>
         <v>0.36111111111111099</v>
       </c>
@@ -1098,35 +2235,39 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>0.89473684210526305</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.78947368421052599</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>0.95</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.65</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>0.84210526315789502</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.63157894736842102</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>0.7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.6</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <f t="shared" si="0"/>
         <v>0.84671052631578947</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <f t="shared" si="1"/>
         <v>0.66776315789473684</v>
       </c>
@@ -1135,35 +2276,39 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.27272727272727298</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>0.3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0.1</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>0.18181818181818199</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <f t="shared" si="0"/>
         <v>0.1704545454545455</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <f t="shared" si="1"/>
         <v>0.11818181818181825</v>
       </c>
@@ -1172,35 +2317,39 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>0.5</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <f t="shared" si="0"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -1209,35 +2358,39 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.42857142857142899</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="N10">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <f t="shared" si="0"/>
         <v>3.5714285714285747E-2</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <f t="shared" si="1"/>
         <v>0.28571428571428598</v>
       </c>
@@ -1246,35 +2399,39 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>0.6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.2</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>0.4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.2</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>0.4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>0.5</v>
       </c>
-      <c r="N11">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <f t="shared" si="0"/>
         <v>0.39166666666666672</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
@@ -1283,35 +2440,39 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.89830508474576298</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.81355932203389802</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>0.98305084745762705</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.84745762711864403</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>0.83050847457627097</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.88135593220339004</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
         <v>0.9</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.88333333333333297</v>
       </c>
-      <c r="N12">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
         <f t="shared" si="0"/>
         <v>0.9029661016949152</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <f t="shared" si="1"/>
         <v>0.85642655367231624</v>
       </c>
@@ -1320,35 +2481,39 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>0.25</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>0.125</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
         <f t="shared" si="0"/>
         <v>0.16517857142857151</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <f t="shared" si="1"/>
         <v>3.5714285714285747E-2</v>
       </c>
@@ -1357,35 +2522,39 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>0.76666666666666705</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0.63333333333333297</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>0.7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>0.73333333333333295</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>0.80645161290322598</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>0.87096774193548399</v>
       </c>
-      <c r="N14">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <f t="shared" si="0"/>
         <v>0.77661290322580645</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <f t="shared" si="1"/>
         <v>0.76774193548387071</v>
       </c>
@@ -1394,35 +2563,39 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>0.2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.2</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>0.4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>0.2</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
         <v>0.5</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="N15">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
         <f t="shared" si="0"/>
         <v>0.35833333333333328</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <f t="shared" si="1"/>
         <v>0.22499999999999998</v>
       </c>
@@ -1431,35 +2604,39 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>0.90151515151515205</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.92424242424242398</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>0.87969924812030098</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.96992481203007497</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>0.90225563909774398</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>0.92481203007518797</v>
       </c>
-      <c r="K16">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>0.86466165413533802</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>0.95488721804511301</v>
       </c>
-      <c r="N16">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
         <f t="shared" si="0"/>
         <v>0.88703292321713367</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <f t="shared" si="1"/>
         <v>0.9434666210981999</v>
       </c>
@@ -1468,35 +2645,39 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>0.592592592592593</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.62962962962962998</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>0.46428571428571402</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>0.407407407407407</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>0.5</v>
       </c>
-      <c r="N17">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
         <f t="shared" si="0"/>
         <v>0.54596560846560849</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <f t="shared" si="1"/>
         <v>0.45568783068783075</v>
       </c>
@@ -1505,35 +2686,39 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>0.54545454545454497</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>0.54545454545454497</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>0.27272727272727298</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.45454545454545497</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>0.18181818181818199</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>0.63636363636363602</v>
       </c>
-      <c r="K18">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
         <v>0.36363636363636398</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>0.63636363636363602</v>
       </c>
-      <c r="N18">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
         <f t="shared" si="0"/>
         <v>0.34090909090909094</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <f t="shared" si="1"/>
         <v>0.56818181818181801</v>
       </c>
@@ -1542,35 +2727,39 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
         <f t="shared" si="0"/>
         <v>7.1428571428571494E-2</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <f t="shared" si="1"/>
         <v>7.1428571428571494E-2</v>
       </c>
@@ -1579,35 +2768,39 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>0.875</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.75</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
         <v>0.71428571428571397</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.71428571428571397</v>
       </c>
-      <c r="K20">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
         <v>0.625</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0.5</v>
       </c>
-      <c r="N20">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
         <f t="shared" si="0"/>
         <v>0.69642857142857117</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <f t="shared" si="1"/>
         <v>0.52678571428571419</v>
       </c>
@@ -1616,35 +2809,39 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>0.4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>0.2</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
         <v>0.4</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.2</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="N21">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <f t="shared" si="1"/>
         <v>0.14166666666666675</v>
       </c>
@@ -1653,35 +2850,39 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>0.22222222222222199</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>0.6</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.6</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
         <v>0.7</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.4</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
         <v>0.3</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>0.1</v>
       </c>
-      <c r="N22">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
         <f t="shared" si="0"/>
         <v>0.45555555555555549</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <f t="shared" si="1"/>
         <v>0.35833333333333328</v>
       </c>
@@ -1690,35 +2891,39 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>0.38888888888888901</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>0.44444444444444398</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>0.77777777777777801</v>
       </c>
-      <c r="K23">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
         <v>0.61111111111111105</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>0.77777777777777801</v>
       </c>
-      <c r="N23">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
         <f t="shared" si="0"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <f t="shared" si="1"/>
         <v>0.62500000000000033</v>
       </c>
@@ -1727,35 +2932,39 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>0.71428571428571397</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0.85714285714285698</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <v>0.71428571428571397</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="K24">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="N24">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
         <f t="shared" si="0"/>
         <v>0.57142857142857117</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <f t="shared" si="1"/>
         <v>0.57142857142857117</v>
       </c>
@@ -1764,35 +2973,39 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>0.230769230769231</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>0.61538461538461497</v>
       </c>
-      <c r="H25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
         <v>0.46153846153846201</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>0.46153846153846201</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
         <v>0.69230769230769196</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="N25">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
         <f t="shared" si="0"/>
         <v>0.42948717948717952</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <f t="shared" si="1"/>
         <v>0.5657051282051283</v>
       </c>
@@ -1801,35 +3014,39 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>0.30769230769230799</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>0.53846153846153799</v>
       </c>
-      <c r="E26">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>0.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="H26">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
         <v>0.5</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>0.5</v>
       </c>
-      <c r="K26">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
         <v>0.78571428571428603</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>0.85714285714285698</v>
       </c>
-      <c r="N26">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
         <f t="shared" si="0"/>
         <v>0.52335164835164849</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <f t="shared" si="1"/>
         <v>0.54532967032967017</v>
       </c>
@@ -1838,35 +3055,39 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>0.8</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
         <v>0.2</v>
       </c>
-      <c r="H27">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <v>0.8</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>0.2</v>
       </c>
-      <c r="K27">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N27">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
         <f t="shared" si="0"/>
         <v>0.81666666666666676</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <f t="shared" si="1"/>
         <v>0.18333333333333324</v>
       </c>
@@ -1875,35 +3096,39 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>0.1</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.4</v>
       </c>
-      <c r="E28">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>0.27272727272727298</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>0.72727272727272696</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
         <v>0.36363636363636398</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>0.72727272727272696</v>
       </c>
-      <c r="K28">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
         <v>0.18181818181818199</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>0.54545454545454497</v>
       </c>
-      <c r="N28">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3">
         <f t="shared" si="0"/>
         <v>0.22954545454545475</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="3">
         <f t="shared" si="1"/>
         <v>0.59999999999999976</v>
       </c>
@@ -1912,35 +3137,39 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>0.2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.2</v>
       </c>
-      <c r="E29">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
         <v>0.8</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
         <v>0.8</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>0.2</v>
       </c>
-      <c r="K29">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="N29">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3">
         <f t="shared" si="0"/>
         <v>0.49166666666666675</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="3">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -1949,35 +3178,39 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>0.5</v>
       </c>
-      <c r="E30">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H30">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="K30">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
         <v>0.85714285714285698</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="N30">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
         <f t="shared" si="0"/>
         <v>0.58928571428571397</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -1986,35 +3219,39 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>0.30769230769230799</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>0.30769230769230799</v>
       </c>
-      <c r="E31">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>0.35714285714285698</v>
       </c>
-      <c r="H31">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="K31">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
         <v>0.64285714285714302</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="N31">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
         <f t="shared" si="0"/>
         <v>0.41620879120879123</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <f t="shared" si="1"/>
         <v>0.34478021978021972</v>
       </c>
@@ -2023,35 +3260,39 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>0.125</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>0.125</v>
       </c>
-      <c r="E32">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
         <v>0.25</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>0.5</v>
       </c>
-      <c r="H32">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
         <v>0.25</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>0.375</v>
       </c>
-      <c r="K32">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
         <v>0.375</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>0.375</v>
       </c>
-      <c r="N32">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="3">
         <f t="shared" si="1"/>
         <v>0.34375</v>
       </c>
@@ -2060,35 +3301,39 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>0.2</v>
       </c>
-      <c r="E33">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>0.5</v>
       </c>
-      <c r="H33">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K33">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N33">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="3">
         <f>(C33+F33+I33+L33)/4</f>
         <v>0.34166666666666651</v>
       </c>
@@ -2097,35 +3342,39 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="E34">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
         <v>0.42857142857142899</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="H34">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="K34">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="N34">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
         <f t="shared" si="0"/>
         <v>0.39285714285714302</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="3">
         <f t="shared" si="1"/>
         <v>0.17857142857142874</v>
       </c>
@@ -2134,35 +3383,39 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>0.64285714285714302</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>0.64285714285714302</v>
       </c>
-      <c r="E35">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
         <v>0.73333333333333295</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>0.73333333333333295</v>
       </c>
-      <c r="H35">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
         <v>0.93333333333333302</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="K35">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
         <v>0.93333333333333302</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N35">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
         <f t="shared" si="0"/>
         <v>0.8107142857142855</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <f t="shared" si="1"/>
         <v>0.67738095238095242</v>
       </c>
@@ -2171,35 +3424,39 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>0.625</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>0.75</v>
       </c>
-      <c r="E36">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
         <v>0.625</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>0.375</v>
       </c>
-      <c r="H36">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
         <v>0.625</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>0.375</v>
       </c>
-      <c r="K36">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N36">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3">
         <f t="shared" si="0"/>
         <v>0.60763888888888906</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="3">
         <f t="shared" si="1"/>
         <v>0.45833333333333326</v>
       </c>
@@ -2208,35 +3465,39 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>0.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>0.3</v>
       </c>
-      <c r="E37">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
         <v>0.8</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>0.7</v>
       </c>
-      <c r="H37">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
         <v>0.7</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>0.7</v>
       </c>
-      <c r="K37">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>0.72727272727272696</v>
       </c>
-      <c r="N37">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
         <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="3">
         <f t="shared" si="1"/>
         <v>0.6068181818181817</v>
       </c>
@@ -2245,35 +3506,39 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>0.6</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>0.2</v>
       </c>
-      <c r="E38">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>0.5</v>
       </c>
-      <c r="H38">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
         <v>0.4</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>0.4</v>
       </c>
-      <c r="K38">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="N38">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
         <f t="shared" si="0"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="3">
         <f t="shared" si="1"/>
         <v>0.31666666666666676</v>
       </c>
@@ -2282,35 +3547,39 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>0.4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>0.3</v>
       </c>
-      <c r="E39">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>0.5</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>0.4</v>
       </c>
-      <c r="H39">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
         <v>0.6</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>0.5</v>
       </c>
-      <c r="K39">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3">
         <v>0.54545454545454497</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>0.54545454545454497</v>
       </c>
-      <c r="N39">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
         <f t="shared" si="0"/>
         <v>0.51136363636363624</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="3">
         <f t="shared" si="1"/>
         <v>0.43636363636363623</v>
       </c>
@@ -2319,35 +3588,39 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>0.75</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E40">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <v>0.75</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>0.5</v>
       </c>
-      <c r="H40">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="K40">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
         <v>0.5</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>0.5</v>
       </c>
-      <c r="N40">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3">
         <f t="shared" si="0"/>
         <v>0.64583333333333326</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2356,35 +3629,39 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="E41">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <v>0.71428571428571397</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="H41">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
         <v>0.42857142857142899</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="K41">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3">
         <v>0.75</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>0.125</v>
       </c>
-      <c r="N41">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3">
         <f t="shared" si="0"/>
         <v>0.50892857142857151</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="3">
         <f t="shared" si="1"/>
         <v>0.20982142857142849</v>
       </c>
@@ -2393,35 +3670,39 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>0.875</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>0.75</v>
       </c>
-      <c r="E42">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>0.5</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>0.5</v>
       </c>
-      <c r="H42">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
         <v>0.875</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>0.625</v>
       </c>
-      <c r="K42">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
         <v>0.77777777777777801</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N42">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3">
         <f t="shared" si="0"/>
         <v>0.75694444444444453</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="3">
         <f t="shared" si="1"/>
         <v>0.63541666666666674</v>
       </c>
@@ -2430,35 +3711,39 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>0.4</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>0.2</v>
       </c>
-      <c r="E43">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
         <v>0.4</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>0.6</v>
       </c>
-      <c r="H43">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
         <v>0.4</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>0.4</v>
       </c>
-      <c r="K43">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="N43">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
         <f t="shared" si="0"/>
         <v>0.34166666666666679</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="3">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
@@ -2467,35 +3752,39 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>0.4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>0.4</v>
       </c>
-      <c r="E44">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
         <v>0.5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>0.4</v>
       </c>
-      <c r="H44">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
         <v>0.4</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>0.1</v>
       </c>
-      <c r="K44">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
         <v>0.4</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>0.2</v>
       </c>
-      <c r="N44">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <f t="shared" si="0"/>
         <v>0.42500000000000004</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="3">
         <f t="shared" si="1"/>
         <v>0.27500000000000002</v>
       </c>
@@ -2504,35 +3793,39 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>0.2</v>
       </c>
-      <c r="E45">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H45">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
         <v>0.2</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>0.4</v>
       </c>
-      <c r="K45">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="N45">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3">
         <f t="shared" si="0"/>
         <v>9.1666666666666757E-2</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <f t="shared" si="1"/>
         <v>0.23333333333333325</v>
       </c>
@@ -2541,35 +3834,39 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="E46">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
         <v>0.25</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>0.5</v>
       </c>
-      <c r="H46">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
         <v>0.5</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>0.125</v>
       </c>
-      <c r="K46">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
         <v>0.625</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>0.5</v>
       </c>
-      <c r="N46">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
         <f t="shared" si="0"/>
         <v>0.41517857142857151</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="3">
         <f t="shared" si="1"/>
         <v>0.35267857142857151</v>
       </c>
@@ -2578,35 +3875,39 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E47">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>0.42857142857142899</v>
       </c>
-      <c r="K47">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
         <v>0.85714285714285698</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>0.42857142857142899</v>
       </c>
-      <c r="N47">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3">
         <f t="shared" si="0"/>
         <v>0.51190476190476175</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <f t="shared" si="1"/>
         <v>0.25595238095238126</v>
       </c>
@@ -2615,35 +3916,39 @@
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>0.875</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>0.125</v>
       </c>
-      <c r="E48">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
         <v>0.75</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>0.25</v>
       </c>
-      <c r="H48">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
         <v>0.75</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>0.75</v>
       </c>
-      <c r="K48">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
         <v>0.875</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>0.75</v>
       </c>
-      <c r="N48">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="3">
         <f t="shared" si="1"/>
         <v>0.46875</v>
       </c>
@@ -2652,35 +3957,39 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E49">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="H49">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K49">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>0.14285714285714299</v>
       </c>
-      <c r="N49">
+      <c r="M49" s="3"/>
+      <c r="N49" s="3">
         <f t="shared" si="0"/>
         <v>0.148809523809524</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="3">
         <f t="shared" si="1"/>
         <v>0.16071428571428575</v>
       </c>
@@ -2689,35 +3998,39 @@
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>0.8</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>0.8</v>
       </c>
-      <c r="E50">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>0.5</v>
       </c>
-      <c r="H50">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="K50">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N50">
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
         <f t="shared" si="0"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="3">
         <f t="shared" si="1"/>
         <v>0.61666666666666647</v>
       </c>
@@ -2726,35 +4039,39 @@
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>0.53846153846153799</v>
       </c>
-      <c r="E51">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
         <v>0.53846153846153799</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>0.69230769230769196</v>
       </c>
-      <c r="H51">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3">
         <v>0.230769230769231</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>0.69230769230769196</v>
       </c>
-      <c r="K51">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3">
         <v>0.46153846153846201</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>0.61538461538461497</v>
       </c>
-      <c r="N51">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="3">
         <f t="shared" si="1"/>
         <v>0.63461538461538425</v>
       </c>
@@ -2763,35 +4080,39 @@
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>0.25</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
         <v>0.375</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>0.25</v>
       </c>
-      <c r="H52">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
         <v>0.375</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>0.5</v>
       </c>
-      <c r="K52">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
         <v>0.22222222222222199</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>0.22222222222222199</v>
       </c>
-      <c r="N52">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3">
         <f t="shared" si="0"/>
         <v>0.30555555555555547</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="3">
         <f t="shared" si="1"/>
         <v>0.2430555555555555</v>
       </c>
@@ -2800,35 +4121,39 @@
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="H53">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="K53">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>0.5</v>
       </c>
-      <c r="N53">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3">
         <f t="shared" si="0"/>
         <v>0.24999999999999972</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="3">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
@@ -2837,35 +4162,39 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>0.5</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E54">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="H54">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
         <v>0.5</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="K54">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="N54">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3">
         <f t="shared" si="0"/>
         <v>0.45833333333333348</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="3">
         <f t="shared" si="1"/>
         <v>8.3333333333333495E-2</v>
       </c>
@@ -2874,35 +4203,39 @@
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>0.5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>0.375</v>
       </c>
-      <c r="E55">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
         <v>0.375</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>0.125</v>
       </c>
-      <c r="H55">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
         <v>0.375</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>0.125</v>
       </c>
-      <c r="K55">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
         <v>0</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N55">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
         <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="3">
         <f t="shared" si="1"/>
         <v>0.23958333333333326</v>
       </c>
@@ -2911,35 +4244,39 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>0.52777777777777801</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>0.77777777777777801</v>
       </c>
-      <c r="E56">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>0.72222222222222199</v>
       </c>
-      <c r="H56">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3">
         <v>0.55555555555555602</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>0.80555555555555602</v>
       </c>
-      <c r="K56">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
         <v>0.69444444444444398</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="N56">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3">
         <f t="shared" si="0"/>
         <v>0.58333333333333348</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="3">
         <f t="shared" si="1"/>
         <v>0.72222222222222232</v>
       </c>
@@ -2948,35 +4285,39 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>0.25</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>0.375</v>
       </c>
-      <c r="E57">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
         <v>0.625</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>0.375</v>
       </c>
-      <c r="H57">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
         <v>0.25</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>0.125</v>
       </c>
-      <c r="K57">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
         <v>0.125</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>0.25</v>
       </c>
-      <c r="N57">
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
         <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="3">
         <f t="shared" si="1"/>
         <v>0.28125</v>
       </c>
@@ -2985,35 +4326,39 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>0.36363636363636398</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>0.36363636363636398</v>
       </c>
-      <c r="E58">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
         <v>0.5</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H58">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>0.25</v>
       </c>
-      <c r="K58">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="N58">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
         <f t="shared" si="0"/>
         <v>0.34090909090909099</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="3">
         <f t="shared" si="1"/>
         <v>0.34090909090909099</v>
       </c>
@@ -3022,35 +4367,39 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>0.5</v>
       </c>
-      <c r="E59">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>0.5</v>
       </c>
-      <c r="H59">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3">
         <v>0.5</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>0.5</v>
       </c>
-      <c r="K59">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
         <v>0.5</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N59">
+      <c r="M59" s="3"/>
+      <c r="N59" s="3">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="3">
         <f t="shared" si="1"/>
         <v>0.45833333333333326</v>
       </c>
@@ -3073,36 +4422,36 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3149,43 +4498,47 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <f>(B3+E3+H3+K3)/4</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <f>(C3+F3+I3+L3)/4</f>
         <v>0.70833333333333348</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <f>AVERAGE(N3:N42)</f>
         <v>0.97604166666666659</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <f>AVERAGE(O3:O42)</f>
         <v>0.83541666666666681</v>
       </c>
@@ -3194,35 +4547,39 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.5</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N4">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <f t="shared" ref="N4:N42" si="0">(B4+E4+H4+K4)/4</f>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <f t="shared" ref="O4:O42" si="1">(C4+F4+I4+L4)/4</f>
         <v>0.625</v>
       </c>
@@ -3231,35 +4588,39 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.5</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
@@ -3268,35 +4629,39 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
@@ -3305,35 +4670,39 @@
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3342,35 +4711,39 @@
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.5</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
@@ -3379,35 +4752,39 @@
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3416,35 +4793,39 @@
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.5</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
@@ -3453,35 +4834,39 @@
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
@@ -3490,35 +4875,39 @@
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3527,35 +4916,39 @@
       <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O13">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
         <f t="shared" si="1"/>
         <v>0.83333333333333348</v>
       </c>
@@ -3564,35 +4957,39 @@
       <c r="A14" t="s">
         <v>78</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3601,35 +4998,39 @@
       <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.5</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.5</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
         <f t="shared" si="1"/>
         <v>0.66666666666666674</v>
       </c>
@@ -3638,35 +5039,39 @@
       <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O16">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3675,35 +5080,39 @@
       <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3712,35 +5121,39 @@
       <c r="A18" t="s">
         <v>82</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O18">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3749,35 +5162,39 @@
       <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O19">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3786,35 +5203,39 @@
       <c r="A20" t="s">
         <v>84</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O20">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3823,35 +5244,39 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O21">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3860,35 +5285,39 @@
       <c r="A22" t="s">
         <v>86</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3897,35 +5326,39 @@
       <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
         <v>0.5</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="K23">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N23">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
         <f t="shared" si="0"/>
         <v>0.91666666666666674</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
@@ -3934,35 +5367,39 @@
       <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O24">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -3971,35 +5408,39 @@
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
@@ -4008,35 +5449,39 @@
       <c r="A26" t="s">
         <v>90</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
         <v>0.5</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O26">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
@@ -4045,35 +5490,39 @@
       <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27">
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
         <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4082,35 +5531,39 @@
       <c r="A28" t="s">
         <v>92</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O28">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <f t="shared" si="1"/>
         <v>0.66666666666666652</v>
       </c>
@@ -4119,35 +5572,39 @@
       <c r="A29" t="s">
         <v>93</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
         <v>0.5</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
         <f t="shared" si="1"/>
         <v>0.54166666666666674</v>
       </c>
@@ -4156,35 +5613,39 @@
       <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O30">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -4193,35 +5654,39 @@
       <c r="A31" t="s">
         <v>95</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -4230,35 +5695,39 @@
       <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
         <v>0.5</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O32">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
@@ -4267,35 +5736,39 @@
       <c r="A33" t="s">
         <v>97</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O33">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4304,35 +5777,39 @@
       <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O34">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4341,35 +5818,39 @@
       <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O35">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -4378,35 +5859,39 @@
       <c r="A36" t="s">
         <v>100</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O36">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
@@ -4415,35 +5900,39 @@
       <c r="A37" t="s">
         <v>101</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
         <v>0.5</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
         <v>0.5</v>
       </c>
-      <c r="K37">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N37">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
         <f t="shared" si="0"/>
         <v>0.91666666666666674</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="3">
         <f t="shared" si="1"/>
         <v>0.66666666666666674</v>
       </c>
@@ -4452,35 +5941,39 @@
       <c r="A38" t="s">
         <v>102</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>0.5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>0.5</v>
       </c>
-      <c r="E38">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="N38">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
         <f t="shared" si="0"/>
         <v>0.79166666666666674</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="3">
         <f t="shared" si="1"/>
         <v>0.54166666666666652</v>
       </c>
@@ -4489,35 +5982,39 @@
       <c r="A39" t="s">
         <v>103</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O39">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -4526,35 +6023,39 @@
       <c r="A40" t="s">
         <v>104</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O40">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4563,35 +6064,39 @@
       <c r="A41" t="s">
         <v>105</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O41">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
@@ -4600,35 +6105,39 @@
       <c r="A42" t="s">
         <v>106</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O42">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4651,75 +6160,80 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4727,43 +6241,48 @@
       <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.85714285714285698</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>0.75</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.875</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>0.75</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.75</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>0.75</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.75</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <f>(B3+E3+H3+K3)/4</f>
         <v>0.77678571428571419</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <f>(C3+F3+I3+L3)/4</f>
         <v>0.84375</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <f>AVERAGE(N3:N13)</f>
         <v>0.7976973783791963</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <f>AVERAGE(O3:O13)</f>
         <v>0.83265238549329468</v>
       </c>
@@ -4772,371 +6291,441 @@
       <c r="A4" t="s">
         <v>109</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.90909090909090895</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>0.72727272727272696</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>0.81818181818181801</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.81818181818181801</v>
       </c>
-      <c r="N4">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <f t="shared" ref="N4:N13" si="0">(B4+E4+H4+K4)/4</f>
         <v>0.86363636363636342</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <f t="shared" ref="O4:O13" si="1">(C4+F4+I4+L4)/4</f>
         <v>0.93181818181818177</v>
       </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>0.75</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.75</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.91666666666666696</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>0.92307692307692302</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0.84615384615384603</v>
       </c>
-      <c r="N5">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <f t="shared" si="0"/>
         <v>0.85576923076923073</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <f t="shared" si="1"/>
         <v>0.83653846153846145</v>
       </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0.61538461538461497</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.84615384615384603</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>0.69230769230769196</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.84615384615384603</v>
       </c>
-      <c r="N6">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <f t="shared" si="0"/>
         <v>0.71153846153846134</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <f t="shared" si="1"/>
         <v>0.80769230769230749</v>
       </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <f t="shared" si="1"/>
         <v>0.79166666666666674</v>
       </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.46153846153846201</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.92307692307692302</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>0.69230769230769196</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.46153846153846201</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>0.84615384615384603</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.92307692307692302</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <f t="shared" si="1"/>
         <v>0.82692307692307698</v>
       </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>0.92307692307692302</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>0.76923076923076905</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.84615384615384603</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>0.92307692307692302</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.69230769230769196</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.69230769230769196</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <f t="shared" si="0"/>
         <v>0.90384615384615374</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>0.80769230769230749</v>
       </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>0.8</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.8</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>116</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>0.71428571428571397</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>0.71428571428571397</v>
       </c>
-      <c r="N11">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <f t="shared" si="0"/>
         <v>0.92857142857142849</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <f t="shared" si="1"/>
         <v>0.92857142857142849</v>
       </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>0.91666666666666696</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.91666666666666696</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
         <v>0.91666666666666696</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.91666666666666696</v>
       </c>
-      <c r="N12">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
         <f t="shared" si="0"/>
         <v>0.83333333333333348</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <f t="shared" si="1"/>
         <v>0.87500000000000022</v>
       </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="N13">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
         <f t="shared" si="0"/>
         <v>0.68452380952380931</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <f t="shared" si="1"/>
         <v>0.55952380952380931</v>
       </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5155,7 +6744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -5170,30 +6759,30 @@
       <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5234,587 +6823,587 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <f>(B3+E3+H3+K3)/4</f>
         <v>1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <f>(C3+F3+I3+L3)/4</f>
         <v>1</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <f>(N3+N4+N5+N6+N7+N8+N9+N10+N11+N12)/10</f>
         <v>0.98958333333333326</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <f>(O3+O4+O5+O6+O7+O8+O9+O10+O11+O12)/10</f>
         <v>0.99166666666666681</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <f t="shared" ref="N4:N12" si="0">(B4+E4+H4+K4)/4</f>
         <v>1</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <f t="shared" ref="O4:O12" si="1">(C4+F4+I4+L4)/4</f>
         <v>1</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>0.93518518518518501</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <f t="shared" si="0"/>
         <v>0.98379629629629628</v>
       </c>
-      <c r="O11" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
         <v>0.64814814814814803</v>
       </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
         <f t="shared" si="0"/>
         <v>0.91203703703703698</v>
       </c>
-      <c r="O12" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f>N3</f>
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f>O3</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f t="shared" ref="B16:B24" si="2">N4</f>
         <v>1</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" ref="C16:C24" si="3">O4</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>0.91666666666666674</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <f t="shared" si="2"/>
         <v>0.98379629629629628</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f t="shared" si="2"/>
         <v>0.91203703703703698</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5822,12 +7411,12 @@
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5838,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,56 +7441,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.45</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>0.98</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.38</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.84</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.83</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="60" windowWidth="19095" windowHeight="9510" activeTab="4"/>
+    <workbookView xWindow="195" yWindow="60" windowWidth="19095" windowHeight="9510" tabRatio="374" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lfw" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
   <si>
     <t>[]</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>LFW deep funneled pré processada</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -550,6 +553,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -912,11 +919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-838831728"/>
-        <c:axId val="-838830640"/>
+        <c:axId val="2051848544"/>
+        <c:axId val="2051846368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-838831728"/>
+        <c:axId val="2051848544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +966,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-838830640"/>
+        <c:crossAx val="2051846368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -967,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-838830640"/>
+        <c:axId val="2051846368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1019,7 +1026,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-838831728"/>
+        <c:crossAx val="2051848544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1980,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,6 +2196,10 @@
         <f t="shared" si="1"/>
         <v>0.18333333333333324</v>
       </c>
+      <c r="Q5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2230,6 +2241,14 @@
         <f t="shared" si="1"/>
         <v>0.36111111111111099</v>
       </c>
+      <c r="Q6" s="3">
+        <f>STDEV(N3:N13)</f>
+        <v>0.27410381111319421</v>
+      </c>
+      <c r="R6" s="3">
+        <f>STDEV(O3:O13)</f>
+        <v>0.24515483320463327</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4405,7 +4424,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B1:C1"/>
@@ -4422,7 +4442,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,6 +4644,10 @@
         <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
+      <c r="Q5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4665,6 +4689,14 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
+      <c r="Q6" s="3">
+        <f>STDEV(N3:N13)</f>
+        <v>8.4274982807905255E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <f>STDEV(O3:O13)</f>
+        <v>0.12398578445722946</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6143,7 +6175,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -6157,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="R6" sqref="Q5:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6328,7 +6361,6 @@
         <v>0.93181818181818177</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -6372,8 +6404,10 @@
         <v>0.83653846153846145</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6416,8 +6450,14 @@
         <v>0.80769230769230749</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3">
+        <f>STDEV(N3:N13)</f>
+        <v>8.8036409152898967E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <f>STDEV(O3:O13)</f>
+        <v>0.10596897838923086</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6727,8 +6767,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -6744,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6957,8 +7001,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -7001,8 +7047,14 @@
         <v>1</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3">
+        <f>STDEV(N3:N13)</f>
+        <v>2.7718773065873566E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <f>STDEV(O3:O13)</f>
+        <v>2.6352313834736473E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -7410,7 +7462,8 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
@@ -7427,7 +7480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belleaf\Documents\MATLAB\pooling-raw-faces\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="60" windowWidth="19095" windowHeight="9510" tabRatio="374" activeTab="3"/>
+    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9516" tabRatio="374" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lfw" sheetId="1" r:id="rId1"/>
@@ -18,12 +13,12 @@
     <sheet name="MIT" sheetId="4" r:id="rId4"/>
     <sheet name="Resultados" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
   <si>
     <t>[]</t>
   </si>
@@ -439,8 +434,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +466,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -519,12 +514,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -552,17 +635,38 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,17 +683,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-CA"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -598,7 +692,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -618,7 +712,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -626,33 +719,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -694,7 +765,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -706,17 +777,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -779,7 +844,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -822,7 +886,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -834,17 +898,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -907,31 +965,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2051848544"/>
-        <c:axId val="2051846368"/>
+        <c:marker val="1"/>
+        <c:axId val="79950976"/>
+        <c:axId val="79952512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2051848544"/>
+        <c:axId val="79950976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -951,7 +1000,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -963,23 +1012,21 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051846368"/>
+        <c:crossAx val="79952512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051846368"/>
+        <c:axId val="79952512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -997,7 +1044,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1011,7 +1057,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1023,10 +1069,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051848544"/>
+        <c:crossAx val="79950976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,7 +1087,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1054,7 +1099,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1066,13 +1111,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1096,571 +1140,15 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1699,9 +1187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1739,9 +1227,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1773,10 +1261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1808,10 +1295,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1984,48 +1470,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R6"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +1601,7 @@
         <v>0.3849848025549929</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +1642,7 @@
         <v>0.34027777777777746</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2199,9 +1685,9 @@
       <c r="Q5" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2241,16 +1727,14 @@
         <f t="shared" si="1"/>
         <v>0.36111111111111099</v>
       </c>
-      <c r="Q6" s="3">
-        <f>STDEV(N3:N13)</f>
-        <v>0.27410381111319421</v>
-      </c>
-      <c r="R6" s="3">
-        <f>STDEV(O3:O13)</f>
-        <v>0.24515483320463327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2290,8 +1774,16 @@
         <f t="shared" si="1"/>
         <v>0.66776315789473684</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="21">
+        <f>STDEV(N3:N13)</f>
+        <v>0.27410381111319421</v>
+      </c>
+      <c r="R7" s="22">
+        <f>STDEV(O3:O13)</f>
+        <v>0.24515483320463327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickTop="1">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +1824,7 @@
         <v>0.11818181818181825</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +1865,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +1906,7 @@
         <v>0.28571428571428598</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2455,7 +1947,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2496,7 +1988,7 @@
         <v>0.85642655367231624</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2537,7 +2029,7 @@
         <v>3.5714285714285747E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2578,7 +2070,7 @@
         <v>0.76774193548387071</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2619,7 +2111,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2660,7 +2152,7 @@
         <v>0.9434666210981999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2701,7 +2193,7 @@
         <v>0.45568783068783075</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2742,7 +2234,7 @@
         <v>0.56818181818181801</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2783,7 +2275,7 @@
         <v>7.1428571428571494E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2316,7 @@
         <v>0.52678571428571419</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2865,7 +2357,7 @@
         <v>0.14166666666666675</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2906,7 +2398,7 @@
         <v>0.35833333333333328</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2947,7 +2439,7 @@
         <v>0.62500000000000033</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2988,7 +2480,7 @@
         <v>0.57142857142857117</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3029,7 +2521,7 @@
         <v>0.5657051282051283</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3070,7 +2562,7 @@
         <v>0.54532967032967017</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3111,7 +2603,7 @@
         <v>0.18333333333333324</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3152,7 +2644,7 @@
         <v>0.59999999999999976</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3193,7 +2685,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3234,7 +2726,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3275,7 +2767,7 @@
         <v>0.34478021978021972</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3316,7 +2808,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3357,7 +2849,7 @@
         <v>0.34166666666666651</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3398,7 +2890,7 @@
         <v>0.17857142857142874</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3439,7 +2931,7 @@
         <v>0.67738095238095242</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3480,7 +2972,7 @@
         <v>0.45833333333333326</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3521,7 +3013,7 @@
         <v>0.6068181818181817</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3562,7 +3054,7 @@
         <v>0.31666666666666676</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3603,7 +3095,7 @@
         <v>0.43636363636363623</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3644,7 +3136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3685,7 +3177,7 @@
         <v>0.20982142857142849</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3726,7 +3218,7 @@
         <v>0.63541666666666674</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3767,7 +3259,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3808,7 +3300,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3849,7 +3341,7 @@
         <v>0.23333333333333325</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3890,7 +3382,7 @@
         <v>0.35267857142857151</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +3423,7 @@
         <v>0.25595238095238126</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3972,7 +3464,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -4013,7 +3505,7 @@
         <v>0.16071428571428575</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -4054,7 +3546,7 @@
         <v>0.61666666666666647</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -4095,7 +3587,7 @@
         <v>0.63461538461538425</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -4136,7 +3628,7 @@
         <v>0.2430555555555555</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -4177,7 +3669,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -4218,7 +3710,7 @@
         <v>8.3333333333333495E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -4259,7 +3751,7 @@
         <v>0.23958333333333326</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -4300,7 +3792,7 @@
         <v>0.72222222222222232</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -4341,7 +3833,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -4382,7 +3874,7 @@
         <v>0.34090909090909099</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -4434,46 +3926,47 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:18">
+      <c r="B1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4514,7 +4007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -4563,7 +4056,7 @@
         <v>0.83541666666666681</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -4604,7 +4097,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4647,9 +4140,9 @@
       <c r="Q5" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -4689,57 +4182,63 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="Q7" s="21">
         <f>STDEV(N3:N13)</f>
         <v>8.4274982807905255E-2</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R7" s="22">
         <f>STDEV(O3:O13)</f>
         <v>0.12398578445722946</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" thickTop="1">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -4780,7 +4279,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -4821,7 +4320,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -4862,7 +4361,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -4903,7 +4402,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -4944,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -4985,7 +4484,7 @@
         <v>0.83333333333333348</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -5026,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -5067,7 +4566,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -5108,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -5149,7 +4648,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -5190,7 +4689,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -5231,7 +4730,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -5272,7 +4771,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5313,7 +4812,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -5354,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -5395,7 +4894,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -5436,7 +4935,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -5477,7 +4976,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -5518,7 +5017,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -5559,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5600,7 +5099,7 @@
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -5641,7 +5140,7 @@
         <v>0.54166666666666674</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -5682,7 +5181,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -5723,7 +5222,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -5764,7 +5263,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -5805,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -5846,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -5887,7 +5386,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -5928,7 +5427,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -5969,7 +5468,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -6010,7 +5509,7 @@
         <v>0.54166666666666652</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -6051,7 +5550,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -6092,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -6133,7 +5632,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -6185,46 +5684,47 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="Q5:R6"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:18">
+      <c r="B1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +5770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -6320,7 +5820,7 @@
         <v>0.83265238549329468</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -6363,7 +5863,7 @@
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -6407,9 +5907,9 @@
       <c r="Q5" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -6450,16 +5950,14 @@
         <v>0.80769230769230749</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3">
-        <f>STDEV(N3:N13)</f>
-        <v>8.8036409152898967E-2</v>
-      </c>
-      <c r="R6" s="3">
-        <f>STDEV(O3:O13)</f>
-        <v>0.10596897838923086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -6500,10 +5998,16 @@
         <v>0.79166666666666674</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="21">
+        <f>STDEV(N3:N13)</f>
+        <v>8.8036409152898967E-2</v>
+      </c>
+      <c r="R7" s="22">
+        <f>STDEV(O3:O13)</f>
+        <v>0.10596897838923086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickTop="1">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6547,7 +6051,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -6591,7 +6095,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -6635,7 +6139,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -6679,7 +6183,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -6723,7 +6227,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -6767,8 +6271,8 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+    <row r="15" spans="1:18">
+      <c r="B15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6781,54 +6285,55 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
         <v>119</v>
       </c>
@@ -6866,7 +6371,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>121</v>
       </c>
@@ -6916,7 +6421,7 @@
         <v>0.99166666666666681</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
@@ -6960,7 +6465,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
@@ -7004,9 +6509,9 @@
       <c r="Q5" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -7047,60 +6552,64 @@
         <v>1</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3">
+      <c r="Q6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="21">
         <f>STDEV(N3:N13)</f>
         <v>2.7718773065873566E-2</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R7" s="22">
         <f>STDEV(O3:O13)</f>
         <v>2.6352313834736473E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" thickTop="1">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
@@ -7144,7 +6653,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
@@ -7188,7 +6697,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
         <v>128</v>
       </c>
@@ -7232,7 +6741,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
         <v>129</v>
       </c>
@@ -7276,7 +6785,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
         <v>130</v>
       </c>
@@ -7320,8 +6829,8 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1"/>
+    <row r="14" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
@@ -7330,7 +6839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" thickTop="1">
       <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
@@ -7343,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -7356,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
@@ -7369,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>124</v>
       </c>
@@ -7382,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>125</v>
       </c>
@@ -7395,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>126</v>
       </c>
@@ -7408,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -7421,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
@@ -7434,7 +6943,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>129</v>
       </c>
@@ -7447,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
@@ -7460,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="Q5:R5"/>
@@ -7477,23 +6986,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>135</v>
@@ -7508,7 +7017,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -7525,7 +7034,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="9" t="s">
         <v>131</v>
       </c>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9516" tabRatio="374" activeTab="3"/>
+    <workbookView xWindow="192" yWindow="60" windowWidth="19092" windowHeight="9516" tabRatio="374" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lfw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="144">
   <si>
     <t>[]</t>
   </si>
@@ -429,6 +429,27 @@
   </si>
   <si>
     <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>Folder 1 PCA</t>
+  </si>
+  <si>
+    <t>Folder 2 PCA</t>
+  </si>
+  <si>
+    <t>Folder 3 PCA</t>
+  </si>
+  <si>
+    <t>Folder 4 PCA</t>
+  </si>
+  <si>
+    <t>Final PCA</t>
+  </si>
+  <si>
+    <t>Folder  4 PCA</t>
+  </si>
+  <si>
+    <t>Média PCA</t>
   </si>
 </sst>
 </file>
@@ -607,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -635,16 +656,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,6 +673,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -970,11 +996,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79950976"/>
-        <c:axId val="79952512"/>
+        <c:axId val="172176896"/>
+        <c:axId val="172178432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79950976"/>
+        <c:axId val="172176896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,14 +1041,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79952512"/>
+        <c:crossAx val="172178432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79952512"/>
+        <c:axId val="172178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1072,7 +1098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79950976"/>
+        <c:crossAx val="172176896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,7 +1171,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1471,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1482,36 +1508,56 @@
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="R1" s="23"/>
+      <c r="T1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" s="23"/>
+      <c r="W1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="23"/>
+      <c r="Z1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" s="23"/>
+      <c r="AC1" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD1" s="23"/>
+      <c r="AF1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="23"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +1597,38 @@
       <c r="R2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1600,8 +1676,40 @@
         <f>AVERAGE(O3:O59)</f>
         <v>0.3849848025549929</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1">
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.4</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.6</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>(T3+W3+Z3+AC3)/4</f>
+        <v>0.51388888888888906</v>
+      </c>
+      <c r="AG3">
+        <f>(U3+X3+AA3+AD3)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1641,8 +1749,40 @@
         <f t="shared" ref="O4:O59" si="1">(C4+F4+I4+L4)/4</f>
         <v>0.34027777777777746</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="X4">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="Z4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AA4">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="AC4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AD4">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF59" si="2">(T4+W4+Z4+AC4)/4</f>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG59" si="3">(U4+X4+AA4+AD4)/4</f>
+        <v>0.23611111111111099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1682,12 +1822,44 @@
         <f t="shared" si="1"/>
         <v>0.18333333333333324</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="18"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickTop="1">
+      <c r="R5" s="22"/>
+      <c r="T5">
+        <v>0.4</v>
+      </c>
+      <c r="U5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.6</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0.2</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="2"/>
+        <v>0.38333333333333325</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15" thickTop="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1727,14 +1899,46 @@
         <f t="shared" si="1"/>
         <v>0.36111111111111099</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="T6">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="X6">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="Z6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AA6">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AC6">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="AD6">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>0.36111111111111072</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333245E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1774,16 +1978,48 @@
         <f t="shared" si="1"/>
         <v>0.66776315789473684</v>
       </c>
-      <c r="Q7" s="21">
-        <f>STDEV(N3:N13)</f>
-        <v>0.27410381111319421</v>
-      </c>
-      <c r="R7" s="22">
-        <f>STDEV(O3:O13)</f>
-        <v>0.24515483320463327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickTop="1">
+      <c r="Q7" s="18">
+        <f>STDEV(N3:N59)</f>
+        <v>0.21899944685308567</v>
+      </c>
+      <c r="R7" s="18">
+        <f>STDEV(O3:O59)</f>
+        <v>0.21242534683518519</v>
+      </c>
+      <c r="T7">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="U7">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="W7">
+        <v>0.8</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="AA7">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="AC7">
+        <v>0.7</v>
+      </c>
+      <c r="AD7">
+        <v>0.65</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>0.82236842105263164</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>0.70855263157894732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15" thickTop="1">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1823,8 +2059,40 @@
         <f t="shared" si="1"/>
         <v>0.11818181818181825</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="T8">
+        <v>0.2</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0.2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>0.12272727272727273</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1864,8 +2132,44 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R9" s="23"/>
+      <c r="T9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="U9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="W9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="X9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="Z9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AD9">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>0.29166666666666646</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1905,8 +2209,46 @@
         <f t="shared" si="1"/>
         <v>0.28571428571428598</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="X10">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="Z10">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285747E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1946,8 +2288,48 @@
         <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q11" s="3">
+        <f>AVERAGE(AF3:AF59)</f>
+        <v>0.46963386181231792</v>
+      </c>
+      <c r="R11" s="3">
+        <f>AVERAGE(AG3:AG59)</f>
+        <v>0.20972444146744129</v>
+      </c>
+      <c r="T11">
+        <v>0.8</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.4</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.4</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15" thickBot="1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1987,8 +2369,40 @@
         <f t="shared" si="1"/>
         <v>0.85642655367231624</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="T12">
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="U12">
+        <v>0.98305084745762705</v>
+      </c>
+      <c r="W12">
+        <v>0.86440677966101698</v>
+      </c>
+      <c r="X12">
+        <v>0.88135593220339004</v>
+      </c>
+      <c r="Z12">
+        <v>0.88135593220339004</v>
+      </c>
+      <c r="AA12">
+        <v>0.96610169491525399</v>
+      </c>
+      <c r="AC12">
+        <v>0.85</v>
+      </c>
+      <c r="AD12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>0.86080508474576278</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>0.93679378531073454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2028,8 +2442,44 @@
         <f t="shared" si="1"/>
         <v>3.5714285714285747E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="T13">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.25</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.125</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0.125</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>0.19642857142857151</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15" thickTop="1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2069,8 +2519,46 @@
         <f t="shared" si="1"/>
         <v>0.76774193548387071</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="Q14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="T14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="U14">
+        <v>0.9</v>
+      </c>
+      <c r="W14">
+        <v>0.8</v>
+      </c>
+      <c r="X14">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="Z14">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="AA14">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AC14">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="AD14">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>0.82661290322580649</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>0.80940860215053745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2110,8 +2598,48 @@
         <f t="shared" si="1"/>
         <v>0.22499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="Q15" s="17">
+        <f>STDEV(AF3:AF59)</f>
+        <v>0.20451803299656779</v>
+      </c>
+      <c r="R15" s="18">
+        <f>STDEV(AG3:AG59)</f>
+        <v>0.24935296164246429</v>
+      </c>
+      <c r="T15">
+        <v>0.4</v>
+      </c>
+      <c r="U15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0.2</v>
+      </c>
+      <c r="AC15">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="15" thickTop="1">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2151,8 +2679,40 @@
         <f t="shared" si="1"/>
         <v>0.9434666210981999</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="T16">
+        <v>0.88636363636363602</v>
+      </c>
+      <c r="U16">
+        <v>0.96212121212121204</v>
+      </c>
+      <c r="W16">
+        <v>0.86466165413533802</v>
+      </c>
+      <c r="X16">
+        <v>0.96240601503759404</v>
+      </c>
+      <c r="Z16">
+        <v>0.90225563909774398</v>
+      </c>
+      <c r="AA16">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="AC16">
+        <v>0.87969924812030098</v>
+      </c>
+      <c r="AD16">
+        <v>0.98496240601503804</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>0.88324504442925478</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>0.97173331054909995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2192,8 +2752,40 @@
         <f t="shared" si="1"/>
         <v>0.45568783068783075</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="T17">
+        <v>0.592592592592593</v>
+      </c>
+      <c r="U17">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="W17">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="X17">
+        <v>0.53571428571428603</v>
+      </c>
+      <c r="Z17">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="AA17">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="AC17">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="AD17">
+        <v>0.5</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>0.51025132275132301</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>0.4811507936507935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2233,8 +2825,40 @@
         <f t="shared" si="1"/>
         <v>0.56818181818181801</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="T18">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="U18">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="W18">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="AA18">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="AC18">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545475</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>0.11363636363636374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2274,8 +2898,40 @@
         <f t="shared" si="1"/>
         <v>7.1428571428571494E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571494E-2</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2315,8 +2971,40 @@
         <f t="shared" si="1"/>
         <v>0.52678571428571419</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="T20">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.875</v>
+      </c>
+      <c r="X20">
+        <v>0.125</v>
+      </c>
+      <c r="Z20">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0.625</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>0.76785714285714279</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2356,8 +3044,40 @@
         <f t="shared" si="1"/>
         <v>0.14166666666666675</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="T21">
+        <v>0.2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0.4</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>0.2333333333333335</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2397,8 +3117,40 @@
         <f t="shared" si="1"/>
         <v>0.35833333333333328</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="T22">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="U22">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="W22">
+        <v>0.7</v>
+      </c>
+      <c r="X22">
+        <v>0.4</v>
+      </c>
+      <c r="Z22">
+        <v>0.3</v>
+      </c>
+      <c r="AA22">
+        <v>0.4</v>
+      </c>
+      <c r="AC22">
+        <v>0.3</v>
+      </c>
+      <c r="AD22">
+        <v>0.3</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>0.35277777777777775</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>0.38611111111111102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2438,8 +3190,40 @@
         <f t="shared" si="1"/>
         <v>0.62500000000000033</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="T23">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X23">
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="Z23">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AD23">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="2"/>
+        <v>0.61111111111111127</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="3"/>
+        <v>9.7222222222222252E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2479,8 +3263,40 @@
         <f t="shared" si="1"/>
         <v>0.57142857142857117</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="T24">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="U24">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="W24">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="X24">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="Z24">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AA24">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="AC24">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AD24">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>0.46428571428571425</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="3"/>
+        <v>0.32142857142857173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2520,8 +3336,40 @@
         <f t="shared" si="1"/>
         <v>0.5657051282051283</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="T25">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="U25">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="W25">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="X25">
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="Z25">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="AA25">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="AC25">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="AD25">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="2"/>
+        <v>0.5657051282051283</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="3"/>
+        <v>0.41185897435897445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2561,8 +3409,40 @@
         <f t="shared" si="1"/>
         <v>0.54532967032967017</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="T26">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="U26">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="W26">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="X26">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="Z26">
+        <v>0.64285714285714302</v>
+      </c>
+      <c r="AA26">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AC26">
+        <v>0.64285714285714302</v>
+      </c>
+      <c r="AD26">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="2"/>
+        <v>0.59890109890109877</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="3"/>
+        <v>0.32554945054945073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2602,8 +3482,40 @@
         <f t="shared" si="1"/>
         <v>0.18333333333333324</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="T27">
+        <v>0.8</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.8</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0.8</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0.5</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="2"/>
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="AG27">
+        <f>(U27+X27+AA27+AD27)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2643,8 +3555,40 @@
         <f t="shared" si="1"/>
         <v>0.59999999999999976</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="T28">
+        <v>0.4</v>
+      </c>
+      <c r="U28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="X28">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="Z28">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="AA28">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="AC28">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="AD28">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="2"/>
+        <v>0.44090909090909125</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="3"/>
+        <v>0.18636363636363648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2684,8 +3628,40 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="T29">
+        <v>0.2</v>
+      </c>
+      <c r="U29">
+        <v>0.2</v>
+      </c>
+      <c r="W29">
+        <v>0.8</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0.2</v>
+      </c>
+      <c r="AC29">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="2"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2725,8 +3701,40 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="T30">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="U30">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="W30">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="X30">
+        <v>0.5</v>
+      </c>
+      <c r="Z30">
+        <v>0.5</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="2"/>
+        <v>0.39880952380952378</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2766,8 +3774,40 @@
         <f t="shared" si="1"/>
         <v>0.34478021978021972</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="T31">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="U31">
+        <v>0.15384615384615399</v>
+      </c>
+      <c r="W31">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="X31">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="Z31">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="AA31">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AC31">
+        <v>0.64285714285714302</v>
+      </c>
+      <c r="AD31">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="2"/>
+        <v>0.45604395604395587</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="3"/>
+        <v>0.28846153846153849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +3847,40 @@
         <f t="shared" si="1"/>
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="T32">
+        <v>0.125</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.25</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0.25</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0.25</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="2"/>
+        <v>0.21875</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2848,8 +3920,40 @@
         <f>(C33+F33+I33+L33)/4</f>
         <v>0.34166666666666651</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="T33">
+        <v>0.2</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="X33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="Z33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AA33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AC33">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666673</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333495E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2889,8 +3993,40 @@
         <f t="shared" si="1"/>
         <v>0.17857142857142874</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="T34">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="U34">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="W34">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="2"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285747E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2930,8 +4066,40 @@
         <f t="shared" si="1"/>
         <v>0.67738095238095242</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="T35">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="U35">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="W35">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="X35">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="Z35">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AA35">
+        <v>0.8</v>
+      </c>
+      <c r="AC35">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="AD35">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="2"/>
+        <v>0.70952380952380945</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="3"/>
+        <v>0.55595238095238075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2971,8 +4139,40 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333326</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="T36">
+        <v>0.625</v>
+      </c>
+      <c r="U36">
+        <v>0.375</v>
+      </c>
+      <c r="W36">
+        <v>0.75</v>
+      </c>
+      <c r="X36">
+        <v>0.375</v>
+      </c>
+      <c r="Z36">
+        <v>0.375</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="2"/>
+        <v>0.60416666666666674</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3012,8 +4212,40 @@
         <f t="shared" si="1"/>
         <v>0.6068181818181817</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="T37">
+        <v>0.4</v>
+      </c>
+      <c r="U37">
+        <v>0.3</v>
+      </c>
+      <c r="W37">
+        <v>0.8</v>
+      </c>
+      <c r="X37">
+        <v>0.4</v>
+      </c>
+      <c r="Z37">
+        <v>0.8</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="2"/>
+        <v>0.65909090909090895</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="3"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3053,8 +4285,40 @@
         <f t="shared" si="1"/>
         <v>0.31666666666666676</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="T38">
+        <v>0.4</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.5</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0.6</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="AG38">
+        <f>(U38+X38+AA38+AD38)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3094,8 +4358,40 @@
         <f t="shared" si="1"/>
         <v>0.43636363636363623</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="T39">
+        <v>0.4</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.6</v>
+      </c>
+      <c r="X39">
+        <v>0.1</v>
+      </c>
+      <c r="Z39">
+        <v>0.6</v>
+      </c>
+      <c r="AA39">
+        <v>0.1</v>
+      </c>
+      <c r="AC39">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="AD39">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="2"/>
+        <v>0.55909090909090908</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="3"/>
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3135,8 +4431,40 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="T40">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="U40">
+        <v>0.5</v>
+      </c>
+      <c r="W40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="Z40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AA40">
+        <v>0.5</v>
+      </c>
+      <c r="AC40">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AD40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="2"/>
+        <v>0.77083333333333348</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="3"/>
+        <v>0.58333333333333348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3176,8 +4504,40 @@
         <f t="shared" si="1"/>
         <v>0.20982142857142849</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="T41">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0.5</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="2"/>
+        <v>0.51785714285714302</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3217,8 +4577,40 @@
         <f t="shared" si="1"/>
         <v>0.63541666666666674</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="T42">
+        <v>0.75</v>
+      </c>
+      <c r="U42">
+        <v>0.125</v>
+      </c>
+      <c r="W42">
+        <v>0.5</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.75</v>
+      </c>
+      <c r="AA42">
+        <v>0.125</v>
+      </c>
+      <c r="AC42">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AD42">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="2"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="3"/>
+        <v>0.1180555555555555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3258,8 +4650,40 @@
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="T43">
+        <v>0.4</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.2</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.4</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <f>(T43+W43+Z43+AC43)/4</f>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3299,8 +4723,40 @@
         <f t="shared" si="1"/>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="T44">
+        <v>0.4</v>
+      </c>
+      <c r="U44">
+        <v>0.3</v>
+      </c>
+      <c r="W44">
+        <v>0.4</v>
+      </c>
+      <c r="X44">
+        <v>0.4</v>
+      </c>
+      <c r="Z44">
+        <v>0.5</v>
+      </c>
+      <c r="AA44">
+        <v>0.1</v>
+      </c>
+      <c r="AC44">
+        <v>0.2</v>
+      </c>
+      <c r="AD44">
+        <v>0.1</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="3"/>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3340,8 +4796,40 @@
         <f t="shared" si="1"/>
         <v>0.23333333333333325</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="T45">
+        <v>0.2</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="X45">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0.2</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="2"/>
+        <v>9.1666666666666757E-2</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="3"/>
+        <v>9.1666666666666757E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3381,8 +4869,40 @@
         <f t="shared" si="1"/>
         <v>0.35267857142857151</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="T46">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0.375</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0.625</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="2"/>
+        <v>0.48214285714285726</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3422,8 +4942,40 @@
         <f t="shared" si="1"/>
         <v>0.25595238095238126</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="T47">
+        <v>0.5</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="2"/>
+        <v>0.51785714285714279</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3463,8 +5015,40 @@
         <f t="shared" si="1"/>
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="T48">
+        <v>0.75</v>
+      </c>
+      <c r="U48">
+        <v>0.25</v>
+      </c>
+      <c r="W48">
+        <v>0.875</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0.875</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0.875</v>
+      </c>
+      <c r="AD48">
+        <v>0.125</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="2"/>
+        <v>0.84375</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="3"/>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3504,8 +5088,40 @@
         <f t="shared" si="1"/>
         <v>0.16071428571428575</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="2"/>
+        <v>0.22023809523809551</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3545,8 +5161,40 @@
         <f t="shared" si="1"/>
         <v>0.61666666666666647</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="T50">
+        <v>0.8</v>
+      </c>
+      <c r="U50">
+        <v>0.4</v>
+      </c>
+      <c r="W50">
+        <v>0.5</v>
+      </c>
+      <c r="X50">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="Z50">
+        <v>0.5</v>
+      </c>
+      <c r="AA50">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AC50">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AD50">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="2"/>
+        <v>0.49166666666666675</v>
+      </c>
+      <c r="AG50">
+        <f>(U50+X50+AA50+AD50)/4</f>
+        <v>0.43333333333333324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3586,8 +5234,40 @@
         <f t="shared" si="1"/>
         <v>0.63461538461538425</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="T51">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="U51">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="W51">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="X51">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="Z51">
+        <v>0.15384615384615399</v>
+      </c>
+      <c r="AA51">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="AC51">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="AD51">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="2"/>
+        <v>0.40384615384615397</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="3"/>
+        <v>0.34615384615384626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3627,8 +5307,40 @@
         <f t="shared" si="1"/>
         <v>0.2430555555555555</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="T52">
+        <v>0.5</v>
+      </c>
+      <c r="U52">
+        <v>0.125</v>
+      </c>
+      <c r="W52">
+        <v>0.125</v>
+      </c>
+      <c r="X52">
+        <v>0.25</v>
+      </c>
+      <c r="Z52">
+        <v>0.125</v>
+      </c>
+      <c r="AA52">
+        <v>0.5</v>
+      </c>
+      <c r="AC52">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="2"/>
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="3"/>
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3668,8 +5380,40 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.5</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AA53">
+        <v>0.5</v>
+      </c>
+      <c r="AC53">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AD53">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3709,8 +5453,40 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333495E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="T54">
+        <v>0.5</v>
+      </c>
+      <c r="U54">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="W54">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X54">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="Z54">
+        <v>0.5</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3750,8 +5526,40 @@
         <f t="shared" si="1"/>
         <v>0.23958333333333326</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="T55">
+        <v>0.5</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.5</v>
+      </c>
+      <c r="X55">
+        <v>0.125</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="2"/>
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3791,8 +5599,40 @@
         <f t="shared" si="1"/>
         <v>0.72222222222222232</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="T56">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="U56">
+        <v>0.75</v>
+      </c>
+      <c r="W56">
+        <v>0.5</v>
+      </c>
+      <c r="X56">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="Z56">
+        <v>0.5</v>
+      </c>
+      <c r="AA56">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="AC56">
+        <v>0.75</v>
+      </c>
+      <c r="AD56">
+        <v>0.75</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="2"/>
+        <v>0.63194444444444453</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="3"/>
+        <v>0.74305555555555547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3832,8 +5672,40 @@
         <f t="shared" si="1"/>
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="T57">
+        <v>0.125</v>
+      </c>
+      <c r="U57">
+        <v>0.125</v>
+      </c>
+      <c r="W57">
+        <v>0.625</v>
+      </c>
+      <c r="X57">
+        <v>0.25</v>
+      </c>
+      <c r="Z57">
+        <v>0.125</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0.25</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="2"/>
+        <v>0.28125</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="3"/>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3873,8 +5745,40 @@
         <f t="shared" si="1"/>
         <v>0.34090909090909099</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="T58">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="U58">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="W58">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="X58">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="Z58">
+        <v>0.25</v>
+      </c>
+      <c r="AA58">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="AC58">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="AD58">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="2"/>
+        <v>0.33901515151515177</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="3"/>
+        <v>0.14962121212121229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3914,9 +5818,48 @@
         <f t="shared" si="1"/>
         <v>0.45833333333333326</v>
       </c>
+      <c r="T59">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="U59">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="W59">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="X59">
+        <v>0.5</v>
+      </c>
+      <c r="Z59">
+        <v>0.5</v>
+      </c>
+      <c r="AA59">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AC59">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AD59">
+        <v>0.5</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="2"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666652</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="E1:F1"/>
@@ -3941,30 +5884,30 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="16"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -4137,10 +6080,10 @@
         <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickTop="1">
       <c r="A6" t="s">
@@ -4182,10 +6125,10 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="20" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4229,11 +6172,11 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="17">
         <f>STDEV(N3:N13)</f>
         <v>8.4274982807905255E-2</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="18">
         <f>STDEV(O3:O13)</f>
         <v>0.12398578445722946</v>
       </c>
@@ -5690,39 +7633,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="16"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -5904,10 +7847,10 @@
         <v>0.83653846153846145</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickTop="1">
       <c r="A6" t="s">
@@ -5950,10 +7893,10 @@
         <v>0.80769230769230749</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="16" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5998,11 +7941,11 @@
         <v>0.79166666666666674</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="21">
+      <c r="Q7" s="17">
         <f>STDEV(N3:N13)</f>
         <v>8.8036409152898967E-2</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="18">
         <f>STDEV(O3:O13)</f>
         <v>0.10596897838923086</v>
       </c>
@@ -6272,10 +8215,511 @@
       <c r="R13" s="3"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="15"/>
+      <c r="B15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="E15" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="K15" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="Q15" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
+      <c r="F17">
+        <v>0.875</v>
+      </c>
+      <c r="H17">
+        <v>0.875</v>
+      </c>
+      <c r="I17">
+        <v>0.75</v>
+      </c>
+      <c r="K17">
+        <v>0.375</v>
+      </c>
+      <c r="L17">
+        <v>0.75</v>
+      </c>
+      <c r="N17">
+        <f>(B17+E17+H17+K17)/4</f>
+        <v>0.71428571428571419</v>
+      </c>
+      <c r="O17">
+        <f>(C17+F17+I17+L17)/4</f>
+        <v>0.84375</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>AVERAGE(N17:N27)</f>
+        <v>0.84131663790754696</v>
+      </c>
+      <c r="R17" s="3">
+        <f>AVERAGE(O17:O27)</f>
+        <v>0.86274615535979171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="L18">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N27" si="2">(B18+E18+H18+K18)/4</f>
+        <v>0.93181818181818177</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O27" si="3">(C18+F18+I18+L18)/4</f>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="L19">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.92147435897435903</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>0.93910256410256399</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickTop="1">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="E20">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="F20">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="H20">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I20">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="K20">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="L20">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="25">
+        <v>1</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F21">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H21">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I21">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K21">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L21">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0.87499999999999978</v>
+      </c>
+      <c r="Q21" s="17">
+        <f>STDEV(N17:N27)</f>
+        <v>0.10077059844082589</v>
+      </c>
+      <c r="R21" s="18">
+        <f>STDEV(O17:O27)</f>
+        <v>9.6271202356662464E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickTop="1">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="E22">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F22">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="L22">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.82692307692307665</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0.82692307692307676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="F23">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0.88461538461538458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.8</v>
+      </c>
+      <c r="I24">
+        <v>0.6</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.6</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0.92857142857142838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>0.91666666666666652</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I27">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="K27">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="L27">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>0.72023809523809501</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0.64285714285714279</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B1:C1"/>
@@ -6293,7 +8737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -6308,30 +8752,30 @@
       <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="16"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
@@ -6506,10 +8950,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickTop="1">
       <c r="A6" s="2" t="s">
@@ -6552,10 +8996,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="16" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6600,11 +9044,11 @@
         <v>1</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="21">
+      <c r="Q7" s="17">
         <f>STDEV(N3:N13)</f>
         <v>2.7718773065873566E-2</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="18">
         <f>STDEV(O3:O13)</f>
         <v>2.6352313834736473E-2</v>
       </c>
